--- a/Attendence.xlsx
+++ b/Attendence.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\desktop\CodingThinker\Advance Java 330pm\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\desktop\CodingThinker\Advance Java 330pm\advancejava330\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F323884-7AE6-4EA5-8EB9-C59C545A15FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72DF418A-40F4-4FA1-A7AE-E797DB1E473A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="16">
   <si>
     <t>Advance Java</t>
   </si>
@@ -61,6 +61,18 @@
   </si>
   <si>
     <t>p</t>
+  </si>
+  <si>
+    <t>converted to MERN</t>
+  </si>
+  <si>
+    <t>Sneha Yadav</t>
+  </si>
+  <si>
+    <t>charu</t>
+  </si>
+  <si>
+    <t>yashika</t>
   </si>
 </sst>
 </file>
@@ -379,18 +391,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="4" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="10.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -398,83 +410,242 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C2" s="1">
         <v>45862</v>
       </c>
       <c r="D2" s="1">
-        <v>45864</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+        <v>45863</v>
+      </c>
+      <c r="E2" s="1">
+        <v>45866</v>
+      </c>
+      <c r="F2" s="1">
+        <v>45867</v>
+      </c>
+      <c r="G2" s="1">
+        <v>45868</v>
+      </c>
+      <c r="H2" s="1">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="C9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="C10" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" t="s">
         <v>11</v>
       </c>
     </row>

--- a/Attendence.xlsx
+++ b/Attendence.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\desktop\CodingThinker\Advance Java 330pm\advancejava330\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72DF418A-40F4-4FA1-A7AE-E797DB1E473A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6AB78E0-F98D-4CF7-8622-B9E5007F9A45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="13">
   <si>
     <t>Advance Java</t>
   </si>
@@ -54,25 +54,16 @@
     <t>Piyush Singh</t>
   </si>
   <si>
-    <t>Vinay Pal</t>
-  </si>
-  <si>
-    <t>Karan Gangwal</t>
-  </si>
-  <si>
     <t>p</t>
   </si>
   <si>
-    <t>converted to MERN</t>
-  </si>
-  <si>
     <t>Sneha Yadav</t>
   </si>
   <si>
-    <t>charu</t>
-  </si>
-  <si>
-    <t>yashika</t>
+    <t>6-08-205</t>
+  </si>
+  <si>
+    <t>test announce on 11 -08-2025</t>
   </si>
 </sst>
 </file>
@@ -391,18 +382,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="8" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="12" width="10.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -410,7 +401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C2" s="1">
         <v>45862</v>
       </c>
@@ -429,224 +420,269 @@
       <c r="H2" s="1">
         <v>45869</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I2" s="1">
+        <v>45870</v>
+      </c>
+      <c r="J2" s="1">
+        <v>45871</v>
+      </c>
+      <c r="K2" s="1">
+        <v>45873</v>
+      </c>
+      <c r="L2" s="1">
+        <v>45874</v>
+      </c>
+      <c r="M2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+      <c r="J3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+      <c r="I4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+      <c r="I5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+      <c r="I6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" t="s">
+        <v>9</v>
+      </c>
+      <c r="M6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+      <c r="I7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K7" t="s">
+        <v>9</v>
+      </c>
+      <c r="L7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+      <c r="I8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" t="s">
+        <v>9</v>
+      </c>
+      <c r="L8" t="s">
+        <v>9</v>
+      </c>
+      <c r="M8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" t="s">
+        <v>9</v>
+      </c>
+      <c r="I10" t="s">
+        <v>9</v>
+      </c>
+      <c r="J10" t="s">
+        <v>9</v>
+      </c>
+      <c r="K10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="M11" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s">
-        <v>11</v>
-      </c>
-      <c r="H12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Attendence.xlsx
+++ b/Attendence.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\desktop\CodingThinker\Advance Java 330pm\advancejava330\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6AB78E0-F98D-4CF7-8622-B9E5007F9A45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D68B9B9-2CC6-4B66-9E6D-62139727C4C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="15">
   <si>
     <t>Advance Java</t>
   </si>
@@ -63,7 +63,13 @@
     <t>6-08-205</t>
   </si>
   <si>
-    <t>test announce on 11 -08-2025</t>
+    <t>Kishan</t>
+  </si>
+  <si>
+    <t>test announce on 11 -08-2025 (Pending)</t>
+  </si>
+  <si>
+    <t>No student comes</t>
   </si>
 </sst>
 </file>
@@ -382,18 +388,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:P13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="12" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="10.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -401,7 +408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="C2" s="1">
         <v>45862</v>
       </c>
@@ -435,8 +442,17 @@
       <c r="M2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N2" s="1">
+        <v>45876</v>
+      </c>
+      <c r="O2" s="1">
+        <v>45881</v>
+      </c>
+      <c r="P2" s="1">
+        <v>45882</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -467,8 +483,14 @@
       <c r="M3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N3" t="s">
+        <v>9</v>
+      </c>
+      <c r="P3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -494,7 +516,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -523,7 +545,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -557,8 +579,17 @@
       <c r="M6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N6" t="s">
+        <v>9</v>
+      </c>
+      <c r="O6" t="s">
+        <v>9</v>
+      </c>
+      <c r="P6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -592,8 +623,17 @@
       <c r="M7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N7" t="s">
+        <v>9</v>
+      </c>
+      <c r="O7" t="s">
+        <v>9</v>
+      </c>
+      <c r="P7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -625,7 +665,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -648,7 +688,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -680,9 +720,25 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="M11" t="s">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
         <v>12</v>
+      </c>
+      <c r="O11" t="s">
+        <v>9</v>
+      </c>
+      <c r="P11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="M12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="M13" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Attendence.xlsx
+++ b/Attendence.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\desktop\CodingThinker\Advance Java 330pm\advancejava330\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D68B9B9-2CC6-4B66-9E6D-62139727C4C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1336DE64-945E-4870-8E38-AF80B36BB1DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="15">
   <si>
     <t>Advance Java</t>
   </si>
@@ -388,19 +388,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P13"/>
+  <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="12" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.6328125" customWidth="1"/>
+    <col min="16" max="16" width="6.08984375" customWidth="1"/>
+    <col min="17" max="17" width="6.1796875" customWidth="1"/>
+    <col min="18" max="18" width="10.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -408,7 +412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="C2" s="1">
         <v>45862</v>
       </c>
@@ -451,8 +455,14 @@
       <c r="P2" s="1">
         <v>45882</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q2" s="1">
+        <v>45883</v>
+      </c>
+      <c r="R2" s="1">
+        <v>45884</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -489,8 +499,14 @@
       <c r="P3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q3" t="s">
+        <v>9</v>
+      </c>
+      <c r="R3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -516,7 +532,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -544,8 +560,14 @@
       <c r="K5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q5" t="s">
+        <v>9</v>
+      </c>
+      <c r="R5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -588,8 +610,14 @@
       <c r="P6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q6" t="s">
+        <v>9</v>
+      </c>
+      <c r="R6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -632,8 +660,14 @@
       <c r="P7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q7" t="s">
+        <v>9</v>
+      </c>
+      <c r="R7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -665,7 +699,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -688,7 +722,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -720,7 +754,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -730,13 +764,19 @@
       <c r="P11" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q11" t="s">
+        <v>9</v>
+      </c>
+      <c r="R11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="M12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="M13" t="s">
         <v>14</v>
       </c>
